--- a/DataSheets/student_grade.xlsx
+++ b/DataSheets/student_grade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Project_REDSight_DBMS_GROUP_1\DataSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Project_REDSight_DBMS_GROUP_1\Project_REDSight_DBMS_GROUP_1\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E91CB1-9D07-4F2E-9494-D0C2D0ED5BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089424E3-9754-4EE2-8C1E-6A0FDE67B4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{75695F24-FA31-4956-8386-DCAC29894D07}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75695F24-FA31-4956-8386-DCAC29894D07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,27 +152,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="48">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -965,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B8069D-839B-4415-A87F-0CEE328AD9F0}">
   <dimension ref="A1:C177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C169" sqref="C169:C177"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32" defaultRowHeight="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2926,12 +2906,12 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:A8">
-    <cfRule type="duplicateValues" dxfId="49" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A15">
-    <cfRule type="duplicateValues" dxfId="47" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A22">
     <cfRule type="duplicateValues" dxfId="43" priority="43"/>
